--- a/biology/Zoologie/Anchiceratops/Anchiceratops.xlsx
+++ b/biology/Zoologie/Anchiceratops/Anchiceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchiceratops ornatus
 Anchiceratops (littéralement « Proche tête à cornes ») est un genre fossile de dinosaures herbivores cératopsiens qui vécut au Crétacé supérieur au Canada. Il a été découvert en Alberta dans la formation géologique de Horseshoe Canyon datée de la fin du Campanien, soit il y a environ 72 Ma (millions d'années).
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une autre espèce, A. longirostris, décrite en 1929 par C. M. Sternberg[2], est aujourd'hui considérée comme un synonyme junior d'A. ornatus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une autre espèce, A. longirostris, décrite en 1929 par C. M. Sternberg, est aujourd'hui considérée comme un synonyme junior d'A. ornatus.
 Époque : Crétacé
 Taille : 5 à 6 m de long
 Habitat : Canada (Alberta)
@@ -547,9 +561,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barnum Brown du Musée Américain d'Histoire Naturelle a découvert le premier fossile d'anchicératops au cours d'une fouille effectuée le long de la rivière Red Deer en Alberta en 1912 et a nommé l'espèce deux ans plus tard. Ce spécimen initial ne consistait qu'en un crâne partiel, mais des découvertes suivantes incluent un squelette presque complet, qui fait désormais partie de la collection du Musée National du Canada[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barnum Brown du Musée Américain d'Histoire Naturelle a découvert le premier fossile d'anchicératops au cours d'une fouille effectuée le long de la rivière Red Deer en Alberta en 1912 et a nommé l'espèce deux ans plus tard. Ce spécimen initial ne consistait qu'en un crâne partiel, mais des découvertes suivantes incluent un squelette presque complet, qui fait désormais partie de la collection du Musée National du Canada.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A. ornatus : six crânes, un squelette complet
 « A. longirostris » : un crâne</t>
@@ -609,9 +627,11 @@
           <t>Cladogramme Ceratopsidae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022,.
 </t>
         </is>
       </c>
